--- a/biology/Médecine/Institut_de_recherche_de_l'hôpital_d'Ottawa/Institut_de_recherche_de_l'hôpital_d'Ottawa.xlsx
+++ b/biology/Médecine/Institut_de_recherche_de_l'hôpital_d'Ottawa/Institut_de_recherche_de_l'hôpital_d'Ottawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_de_recherche_de_l%27h%C3%B4pital_d%27Ottawa</t>
+          <t>Institut_de_recherche_de_l'hôpital_d'Ottawa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut de recherche de l'hôpital d'Ottawa (IRHO) est un institut de recherche médical à but non lucratif. L'IRHO est affilié à l'Université d'Ottawa et effectue des recherches scientifiques pour L'Hôpital d'Ottawa dans ses efforts pour découvrir de nouvelles thérapies. 
 La mission de l'IRHO est d'exceller dans la recherche, l'éducation et les soins innovants aux patients. 
